--- a/Backend/results/17229644778933183683/project_cashflows.xlsx
+++ b/Backend/results/17229644778933183683/project_cashflows.xlsx
@@ -508,55 +508,55 @@
         <v>-110000</v>
       </c>
       <c r="C2" t="n">
-        <v>31893.86912549821</v>
+        <v>178236.1217973733</v>
       </c>
       <c r="D2" t="n">
-        <v>20844.46854400574</v>
+        <v>167186.7212158808</v>
       </c>
       <c r="E2" t="n">
-        <v>14216.36069698349</v>
+        <v>160558.6133688586</v>
       </c>
       <c r="F2" t="n">
-        <v>14220.10221200558</v>
+        <v>160562.3548838807</v>
       </c>
       <c r="G2" t="n">
-        <v>9250.350495487288</v>
+        <v>155592.6031673624</v>
       </c>
       <c r="H2" t="n">
-        <v>4929.180640097258</v>
+        <v>204115.5868900973</v>
       </c>
       <c r="I2" t="n">
-        <v>4933.658038257525</v>
+        <v>204120.0642882576</v>
       </c>
       <c r="J2" t="n">
-        <v>4938.411592539163</v>
+        <v>204124.8178425392</v>
       </c>
       <c r="K2" t="n">
-        <v>4943.45833564747</v>
+        <v>204129.8645856476</v>
       </c>
       <c r="L2" t="n">
-        <v>4948.816350827744</v>
+        <v>204135.2226008278</v>
       </c>
       <c r="M2" t="n">
-        <v>4954.504836660272</v>
+        <v>204140.9110866603</v>
       </c>
       <c r="N2" t="n">
-        <v>4960.54417585177</v>
+        <v>204146.9504258519</v>
       </c>
       <c r="O2" t="n">
-        <v>4966.95600826971</v>
+        <v>204153.3622582698</v>
       </c>
       <c r="P2" t="n">
-        <v>4973.76330848123</v>
+        <v>204160.1695584813</v>
       </c>
       <c r="Q2" t="n">
-        <v>4980.990468074502</v>
+        <v>204167.3967180746</v>
       </c>
       <c r="R2" t="n">
-        <v>4988.663383057482</v>
+        <v>204175.0696330575</v>
       </c>
       <c r="S2" t="n">
-        <v>4996.809546647234</v>
+        <v>204183.2157966473</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -578,55 +578,55 @@
         <v>-110000</v>
       </c>
       <c r="C3" t="n">
-        <v>-78106.13087450179</v>
+        <v>68236.12179737331</v>
       </c>
       <c r="D3" t="n">
-        <v>-57261.66233049604</v>
+        <v>235422.8430132541</v>
       </c>
       <c r="E3" t="n">
-        <v>-43045.30163351255</v>
+        <v>395981.4563821127</v>
       </c>
       <c r="F3" t="n">
-        <v>-28825.19942150697</v>
+        <v>556543.8112659934</v>
       </c>
       <c r="G3" t="n">
-        <v>-19574.84892601968</v>
+        <v>712136.4144333558</v>
       </c>
       <c r="H3" t="n">
-        <v>-14645.66828592242</v>
+        <v>916252.0013234532</v>
       </c>
       <c r="I3" t="n">
-        <v>-9712.010247664897</v>
+        <v>1120372.065611711</v>
       </c>
       <c r="J3" t="n">
-        <v>-4773.598655125734</v>
+        <v>1324496.88345425</v>
       </c>
       <c r="K3" t="n">
-        <v>169.8596805217367</v>
+        <v>1528626.748039898</v>
       </c>
       <c r="L3" t="n">
-        <v>5118.676031349481</v>
+        <v>1732761.970640725</v>
       </c>
       <c r="M3" t="n">
-        <v>10073.18086800975</v>
+        <v>1936902.881727386</v>
       </c>
       <c r="N3" t="n">
-        <v>15033.72504386152</v>
+        <v>2141049.832153237</v>
       </c>
       <c r="O3" t="n">
-        <v>20000.68105213123</v>
+        <v>2345203.194411507</v>
       </c>
       <c r="P3" t="n">
-        <v>24974.44436061246</v>
+        <v>2549363.363969989</v>
       </c>
       <c r="Q3" t="n">
-        <v>29955.43482868696</v>
+        <v>2753530.760688063</v>
       </c>
       <c r="R3" t="n">
-        <v>34944.09821174444</v>
+        <v>2957705.830321121</v>
       </c>
       <c r="S3" t="n">
-        <v>39940.90775839168</v>
+        <v>3161889.046117768</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -718,55 +718,55 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>14687.96875</v>
+        <v>213874.3750000001</v>
       </c>
       <c r="D5" t="n">
-        <v>14687.96875</v>
+        <v>213874.3750000001</v>
       </c>
       <c r="E5" t="n">
-        <v>14687.96875</v>
+        <v>213874.3750000001</v>
       </c>
       <c r="F5" t="n">
-        <v>14687.96875</v>
+        <v>213874.3750000001</v>
       </c>
       <c r="G5" t="n">
-        <v>14687.96875</v>
+        <v>213874.3750000001</v>
       </c>
       <c r="H5" t="n">
-        <v>14687.96875</v>
+        <v>213874.3750000001</v>
       </c>
       <c r="I5" t="n">
-        <v>14687.96875</v>
+        <v>213874.3750000001</v>
       </c>
       <c r="J5" t="n">
-        <v>14687.96875</v>
+        <v>213874.3750000001</v>
       </c>
       <c r="K5" t="n">
-        <v>14687.96875</v>
+        <v>213874.3750000001</v>
       </c>
       <c r="L5" t="n">
-        <v>14687.96875</v>
+        <v>213874.3750000001</v>
       </c>
       <c r="M5" t="n">
-        <v>14687.96875</v>
+        <v>213874.3750000001</v>
       </c>
       <c r="N5" t="n">
-        <v>14687.96875</v>
+        <v>213874.3750000001</v>
       </c>
       <c r="O5" t="n">
-        <v>14687.96875</v>
+        <v>213874.3750000001</v>
       </c>
       <c r="P5" t="n">
-        <v>14687.96875</v>
+        <v>213874.3750000001</v>
       </c>
       <c r="Q5" t="n">
-        <v>14687.96875</v>
+        <v>213874.3750000001</v>
       </c>
       <c r="R5" t="n">
-        <v>14687.96875</v>
+        <v>213874.3750000001</v>
       </c>
       <c r="S5" t="n">
-        <v>14687.96875</v>
+        <v>213874.3750000001</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -998,55 +998,55 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1503.59375</v>
+        <v>200690.0000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>1503.59375</v>
+        <v>200690.0000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>1503.59375</v>
+        <v>200690.0000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>1503.59375</v>
+        <v>200690.0000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>1503.59375</v>
+        <v>200690.0000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>1503.59375</v>
+        <v>200690.0000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>1503.59375</v>
+        <v>200690.0000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>1503.59375</v>
+        <v>200690.0000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>1503.59375</v>
+        <v>200690.0000000001</v>
       </c>
       <c r="L9" t="n">
-        <v>1503.59375</v>
+        <v>200690.0000000001</v>
       </c>
       <c r="M9" t="n">
-        <v>1503.59375</v>
+        <v>200690.0000000001</v>
       </c>
       <c r="N9" t="n">
-        <v>1503.59375</v>
+        <v>200690.0000000001</v>
       </c>
       <c r="O9" t="n">
-        <v>1503.59375</v>
+        <v>200690.0000000001</v>
       </c>
       <c r="P9" t="n">
-        <v>1503.59375</v>
+        <v>200690.0000000001</v>
       </c>
       <c r="Q9" t="n">
-        <v>1503.59375</v>
+        <v>200690.0000000001</v>
       </c>
       <c r="R9" t="n">
-        <v>1503.59375</v>
+        <v>200690.0000000001</v>
       </c>
       <c r="S9" t="n">
-        <v>1503.59375</v>
+        <v>200690.0000000001</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
